--- a/Doble_Rendija/Actividad 1 doble rendija.xlsx
+++ b/Doble_Rendija/Actividad 1 doble rendija.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Lab_intermedio\COD-INTERMEDIO\Doble_Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA98C5-3E09-4BCB-9BBB-D6F34527E0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023047DB-7447-49EF-B0F9-6EF6990170FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1682888F-FDF5-4D72-9DDE-E1A41F44C4BC}"/>
   </bookViews>
@@ -114,6 +114,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Doble</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Rendija</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2423,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA5598-8996-49D3-8C12-EFE2BD308360}">
   <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Doble_Rendija/Actividad 1 doble rendija.xlsx
+++ b/Doble_Rendija/Actividad 1 doble rendija.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Lab_intermedio\COD-INTERMEDIO\Doble_Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023047DB-7447-49EF-B0F9-6EF6990170FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E24D1ED-732E-4556-A648-E76B47079C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1682888F-FDF5-4D72-9DDE-E1A41F44C4BC}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>V</t>
   </si>
   <si>
     <t>X um</t>
-  </si>
-  <si>
-    <t>ac</t>
   </si>
 </sst>
 </file>
@@ -761,30 +758,6 @@
                 <c:pt idx="179">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="180">
-                  <c:v>905</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>935</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>940</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1336,9 +1309,6 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA5598-8996-49D3-8C12-EFE2BD308360}">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3915,89 +3885,6 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>905</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>980</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
